--- a/biology/Mycologie/Strophariacée/Strophariacée.xlsx
+++ b/biology/Mycologie/Strophariacée/Strophariacée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strophariac%C3%A9e</t>
+          <t>Strophariacée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Strophariaceae (Strophariacées) sont une famille de champignons basidiomycètes de l'ordre des Agaricales. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strophariac%C3%A9e</t>
+          <t>Strophariacée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille comprend des champignons à sporophores agaricoïdes, moyens à grands, hémisphériques à galériculés, avec un anneau membraneux distinct ou des résidus de fibres sur son stipe.
 Les espèces sont toutes saprophytes, grégaires et souvent connées, cespiteuses ou fasciculaires.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strophariac%C3%A9e</t>
+          <t>Strophariacée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, la famille des Strophariaceae présente les genres suivant[1] cette famille contient les genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, la famille des Strophariaceae présente les genres suivant cette famille contient les genres suivants :
 Agrocybe  Fayod 1889
 Brauniella  Rick ex Singer 1955
 Flammula
@@ -568,7 +584,7 @@
 Stagnicola  Redhead &amp; A.H. Sm. 1986
 Stropharia (Fr.) Quél.
 Weraroa  Singer 1958
-Selon Catalogue of Life                                   (2 novembre 2013)[2] :
+Selon Catalogue of Life                                   (2 novembre 2013) :
 genre Agrocybe
 genre Alnicola
 genre Bogbodia
@@ -608,7 +624,7 @@
 genre Stropholoma
 genre Velomycena
 genre Weraroa
-Selon NCBI  (2 novembre 2013)[3] :
+Selon NCBI  (2 novembre 2013) :
 genre Deconica
 genre Flammula
 genre Galerina
